--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
@@ -85,15 +85,15 @@
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -103,13 +103,13 @@
     <t>love</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>better</t>
@@ -1031,25 +1031,25 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.762114537444934</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,25 +1057,25 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1083,25 +1083,25 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,25 +1187,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6820987654320988</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1213,25 +1213,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1239,25 +1239,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6705882352941176</v>
+        <v>0.65</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="10:17">
